--- a/Geospatial_Coordinates_Man.xlsx
+++ b/Geospatial_Coordinates_Man.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/imclarenuk.ibm.com/Desktop/Data Science Course/Manchester/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB2C2370-C300-2446-A90B-1B1B6F52C96E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{82AC759F-DB55-6B49-ACF2-FA2E79F8880D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15360"/>
   </bookViews>
@@ -997,7 +997,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD246"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
